--- a/cfgdefine/test2/instance.xlsx
+++ b/cfgdefine/test2/instance.xlsx
@@ -1,69 +1,398 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\perfect_gen\test\yml\test2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9965F8-EFAE-40C0-A19F-3787B06A8161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="4118" windowWidth="21600" windowHeight="11482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24000" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>##id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>青云天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -71,24 +400,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -137,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -172,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -346,50 +961,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>3021</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cfgdefine/test2/instance.xlsx
+++ b/cfgdefine/test2/instance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>##id</t>
   </si>
@@ -27,6 +27,18 @@
   <si>
     <t>}</t>
   </si>
+  <si>
+    <t>RefreshMonster</t>
+  </si>
+  <si>
+    <t>刷怪</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
 </sst>
 </file>
 
@@ -34,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -61,6 +73,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -68,13 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -83,8 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,22 +143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +167,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,60 +189,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +231,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -231,19 +261,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +333,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,109 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,32 +422,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,17 +455,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,153 +496,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,10 +979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -980,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1025,6 +1037,36 @@
       </c>
       <c r="O2">
         <v>1000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>10001</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>20001</v>
+      </c>
+      <c r="X2">
+        <v>60</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cfgdefine/test2/instance.xlsx
+++ b/cfgdefine/test2/instance.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\java\GameCfgGen\cfgdefine\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiong\IdeaProjects\GameConfigGen\cfgdefine\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6333BB-6B56-42D8-B2E7-35DE442AB73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="4178" windowWidth="23625" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="4176" windowWidth="23628" windowHeight="11424"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,44 +19,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>##id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>青云天</t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>RefreshMonster</t>
-  </si>
-  <si>
-    <t>刷怪</t>
-  </si>
-  <si>
-    <t>Talk</t>
-  </si>
-  <si>
-    <t>对话</t>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
+    <t>地图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3021,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshMonster;刷怪;10001;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk;对话;20001;60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +147,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,110 +430,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="33.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2020</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="L2">
-        <v>3021</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>1000</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>10001</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>20001</v>
-      </c>
-      <c r="X2">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>9</v>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cfgdefine/test2/instance.xlsx
+++ b/cfgdefine/test2/instance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiong\IdeaProjects\GameConfigGen\cfgdefine\test2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="4176" windowWidth="23628" windowHeight="11424"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,92 +14,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>地图表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>dropList</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>副本名字</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>入口</t>
+  </si>
+  <si>
+    <t>副本内容</t>
+  </si>
+  <si>
+    <t>掉落</t>
+  </si>
+  <si>
+    <t>掉落2</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
   <si>
     <t>青云天</t>
   </si>
   <si>
-    <t>地图表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>posX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshMonster;刷怪;10001;5</t>
+  </si>
+  <si>
+    <t>cfgdefine/resource/1.png</t>
   </si>
   <si>
     <t>3021,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshMonster;刷怪;10001;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Talk;对话;20001;60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五指山</t>
+  </si>
+  <si>
+    <t>cfgdefine/resource/2.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,20 +119,348 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,31 +468,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,86 +1040,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
+    <col min="8" max="8" width="33.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="22.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -516,22 +1142,25 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>1000</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8">
       <c r="C5">
         <v>2</v>
       </c>
@@ -542,10 +1171,62 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -553,8 +1234,8 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cfgdefine/test2/instance.xlsx
+++ b/cfgdefine/test2/instance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>地图表</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>cfgdefine/resource/2.png</t>
+  </si>
+  <si>
+    <t>GiveItem;奖励;1</t>
   </si>
 </sst>
 </file>
@@ -714,12 +717,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="8" max="8" width="33.4444444444444" customWidth="1"/>
     <col min="11" max="11" width="22.6666666666667" customWidth="1"/>
@@ -1077,13 +1077,13 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
@@ -1106,13 +1106,13 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
@@ -1153,7 +1153,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
@@ -1205,7 +1205,7 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" t="s">
@@ -1227,6 +1227,11 @@
       </c>
       <c r="H7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
